--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints10.000000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints10.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>2.406992849566521e-05</v>
+        <v>2.417452515897986e-05</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>2.403821427706555e-05</v>
+        <v>2.414874237354806e-05</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>2.397414319977015e-05</v>
+        <v>2.408471684859218e-05</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>2.388032836381336e-05</v>
+        <v>2.398573982778948e-05</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>2.375938286922923e-05</v>
+        <v>2.385510255481701e-05</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>2.361391981605194e-05</v>
+        <v>2.369609627335184e-05</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>2.34465523043154e-05</v>
+        <v>2.351201222707085e-05</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>2.325989343405421e-05</v>
+        <v>2.330614165965161e-05</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>2.30565563053023e-05</v>
+        <v>2.308177581477099e-05</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>2.283915401809354e-05</v>
+        <v>2.284220593610577e-05</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>2.261029967246266e-05</v>
+        <v>2.259072326733367e-05</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>2.237260636844352e-05</v>
+        <v>2.23306190521315e-05</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>2.212868720606995e-05</v>
+        <v>2.206518453417599e-05</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>2.188115528537677e-05</v>
+        <v>2.179771095714495e-05</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>2.163262370639778e-05</v>
+        <v>2.153148956471513e-05</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>2.138570556916715e-05</v>
+        <v>2.126981160056364e-05</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>2.114301397371871e-05</v>
+        <v>2.101596830836723e-05</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>2.090716202008727e-05</v>
+        <v>2.077325093180369e-05</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>2.068070425293575e-05</v>
+        <v>2.054485706461071e-05</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>2.046501768367994e-05</v>
+        <v>2.033210102465993e-05</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>2.026038878015546e-05</v>
+        <v>2.013455297999871e-05</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>2.006706288488859e-05</v>
+        <v>1.995171732532823e-05</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.98852853404059e-05</v>
+        <v>1.978309845534993e-05</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.971530148923372e-05</v>
+        <v>1.962820076476507e-05</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.955735667389908e-05</v>
+        <v>1.948652864827548e-05</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.941169623692831e-05</v>
+        <v>1.935758650058243e-05</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.92785655208478e-05</v>
+        <v>1.924087871638719e-05</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.915820986818446e-05</v>
+        <v>1.913590969039152e-05</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.90508746214647e-05</v>
+        <v>1.904218381729671e-05</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.895680512321505e-05</v>
+        <v>1.895920549180421e-05</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.8876246715962e-05</v>
+        <v>1.888647910861537e-05</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.880944474223231e-05</v>
+        <v>1.882350906243182e-05</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.875664454455244e-05</v>
+        <v>1.876979974795492e-05</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.871809146544892e-05</v>
+        <v>1.872485555988606e-05</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.869367907570393e-05</v>
+        <v>1.868800349391295e-05</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.868094662947241e-05</v>
+        <v>1.865738326034705e-05</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.867646711875438e-05</v>
+        <v>1.863064728205821e-05</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.867681058948248e-05</v>
+        <v>1.860544649621019e-05</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.867854708758935e-05</v>
+        <v>1.857943183996669e-05</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.867824665900763e-05</v>
+        <v>1.85502542504914e-05</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.867247934966994e-05</v>
+        <v>1.851556466494799e-05</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.865781520550894e-05</v>
+        <v>1.847301402050027e-05</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.863082427245725e-05</v>
+        <v>1.84202532543119e-05</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.858807659644747e-05</v>
+        <v>1.83549333035465e-05</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.852614222341233e-05</v>
+        <v>1.827470510536796e-05</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.844159119928443e-05</v>
+        <v>1.817721959693989e-05</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.833099356999641e-05</v>
+        <v>1.806012771542604e-05</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.819091938148071e-05</v>
+        <v>1.792108039798989e-05</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.801793867967033e-05</v>
+        <v>1.775772858179553e-05</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.780892221231184e-05</v>
+        <v>1.756790748212287e-05</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.756460654430437e-05</v>
+        <v>1.735182139042537e-05</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.728841013284396e-05</v>
+        <v>1.711131813350511e-05</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.698380538287869e-05</v>
+        <v>1.684827859878966e-05</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.665426469935649e-05</v>
+        <v>1.656458367370645e-05</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.630326048722658e-05</v>
+        <v>1.626211424568405e-05</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.593426515143694e-05</v>
+        <v>1.594275120214992e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.555075109693592e-05</v>
+        <v>1.560837543053189e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.515619072867138e-05</v>
+        <v>1.52608678182573e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.475405645159272e-05</v>
+        <v>1.490210925275491e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.434782067064782e-05</v>
+        <v>1.453398062145207e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.394095579078449e-05</v>
+        <v>1.415836281177611e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.353687156714609e-05</v>
+        <v>1.377711760872719e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.313743697573051e-05</v>
+        <v>1.339163700137789e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.274292262066509e-05</v>
+        <v>1.30028256223905e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>1.235352493286222e-05</v>
+        <v>1.261156548841843e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.196944034323575e-05</v>
+        <v>1.221873861611661e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>1.159086528269806e-05</v>
+        <v>1.182522702213848e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>1.121799618216151e-05</v>
+        <v>1.143191272313743e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>1.085102947253994e-05</v>
+        <v>1.103967773576841e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>1.049016158474574e-05</v>
+        <v>1.064940407668484e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>1.01355889496913e-05</v>
+        <v>1.026197376254013e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>9.787507998290417e-06</v>
+        <v>9.878268809989226e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>9.44611516145549e-06</v>
+        <v>9.499171235685533e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>9.111606870099376e-06</v>
+        <v>9.125563056282979e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>8.784179555134513e-06</v>
+        <v>8.758326288435003e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>8.464029647474636e-06</v>
+        <v>8.398342948796501e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>8.151353578032164e-06</v>
+        <v>8.0464950540209e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>7.846347777719572e-06</v>
+        <v>7.703664620761689e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>7.549208677450525e-06</v>
+        <v>7.370733665673685e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>7.260132708137476e-06</v>
+        <v>7.048584205410354e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>6.979316300693294e-06</v>
+        <v>6.738098256625621e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>6.706955886030492e-06</v>
+        <v>6.44015783597303e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>6.443247895062647e-06</v>
+        <v>6.15564496010728e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>6.188388758702261e-06</v>
+        <v>5.885441645681898e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>5.942574907861881e-06</v>
+        <v>5.630429909350482e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>5.706002773455018e-06</v>
+        <v>5.391491767767624e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>5.478868786394206e-06</v>
+        <v>5.169509237586903e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>5.261603120503564e-06</v>
+        <v>4.965309325130094e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>5.055850978626255e-06</v>
+        <v>4.77943308515956e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>4.863651122964328e-06</v>
+        <v>4.612328950031606e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>4.68704251763493e-06</v>
+        <v>4.464445304581801e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>4.528064126755284e-06</v>
+        <v>4.336230533645812e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>4.388754914443233e-06</v>
+        <v>4.2281330220598e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>4.27115384481598e-06</v>
+        <v>4.140601154659407e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>4.177299881990838e-06</v>
+        <v>4.074083316280384e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>4.109231990085481e-06</v>
+        <v>4.029027891758728e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>4.068989133217192e-06</v>
+        <v>4.005883265930165e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>4.058610275503391e-06</v>
+        <v>4.005097823630514e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>4.080134381061551e-06</v>
+        <v>4.027119949695645e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>4.135600414009041e-06</v>
+        <v>4.072398028961323e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>2.49007589805644e-05</v>
+        <v>2.466276904965352e-05</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>3.344493298507199e-05</v>
+        <v>3.337845548419948e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>3.218692173986526e-05</v>
+        <v>3.182142703383835e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>3.193213451021538e-05</v>
+        <v>3.179040820948246e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>3.195944192471337e-05</v>
+        <v>3.213978853540059e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>3.182824581757687e-05</v>
+        <v>3.203739943789059e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>3.452004277828894e-05</v>
+        <v>3.447463231625777e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>4.530241495449364e-05</v>
+        <v>4.499723271442796e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>6.215811085734499e-05</v>
+        <v>6.19098047654404e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>6.910780805682566e-05</v>
+        <v>6.935555727920003e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>7.236459330183338e-05</v>
+        <v>7.2903696663395e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>7.534449398268443e-05</v>
+        <v>7.555759051579167e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>7.39284545606214e-05</v>
+        <v>7.330482752674637e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>6.940183593690499e-05</v>
+        <v>6.868467425028051e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>6.595366408029956e-05</v>
+        <v>6.714320251543207e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>6.44920832550179e-05</v>
+        <v>6.697815318907982e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>6.471204610512173e-05</v>
+        <v>6.590049232989474e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>6.622580375245912e-05</v>
+        <v>6.691680110058735e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>6.501821913803035e-05</v>
+        <v>6.521133300221865e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>6.231814207687713e-05</v>
+        <v>6.186094306336038e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>6.048740904878584e-05</v>
+        <v>6.040497368831197e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>5.824934109570947e-05</v>
+        <v>5.832574194060939e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>5.599873357232452e-05</v>
+        <v>5.612815238057821e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>5.421682350903894e-05</v>
+        <v>5.454378004944125e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>5.274994232482571e-05</v>
+        <v>5.329089445997316e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>5.137564043354557e-05</v>
+        <v>5.19779910554239e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>4.987521671900923e-05</v>
+        <v>5.024254645935695e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>4.806821662196016e-05</v>
+        <v>4.801773937588162e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>4.579654534414229e-05</v>
+        <v>4.540962231469579e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>4.290812145101106e-05</v>
+        <v>4.252616344665981e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>3.947367841071678e-05</v>
+        <v>3.946528520091954e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>3.58533808768259e-05</v>
+        <v>3.631186083038413e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>3.242673534300525e-05</v>
+        <v>3.314989154966281e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>2.953225279795084e-05</v>
+        <v>3.008586992192339e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>2.723808371965003e-05</v>
+        <v>2.737461629624733e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>2.550266139617095e-05</v>
+        <v>2.532974331377927e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>2.425000502581335e-05</v>
+        <v>2.407029772650685e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>2.333375220986393e-05</v>
+        <v>2.331344061125195e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>2.26023821180925e-05</v>
+        <v>2.273517027915032e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>2.19743622095555e-05</v>
+        <v>2.217955555453649e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>2.1432347738807e-05</v>
+        <v>2.164480641650888e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>2.096136958998276e-05</v>
+        <v>2.113483770260756e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>2.054645864721919e-05</v>
+        <v>2.065356425037327e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>2.017264579465205e-05</v>
+        <v>2.020490089734609e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>1.982550852554846e-05</v>
+        <v>1.979247213014821e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>1.949813346698126e-05</v>
+        <v>1.941591369139709e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>1.918906332028159e-05</v>
+        <v>1.907196313544464e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>1.889696360841624e-05</v>
+        <v>1.875729277555354e-05</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>1.862049985435201e-05</v>
+        <v>1.846857492498653e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>1.835833758105611e-05</v>
+        <v>1.820248189700673e-05</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>1.810914231149536e-05</v>
+        <v>1.795568600487688e-05</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>1.78715795686367e-05</v>
+        <v>1.772485956185984e-05</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>1.764431487544696e-05</v>
+        <v>1.750667488121836e-05</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>1.742618392581719e-05</v>
+        <v>1.729823542464134e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>1.721686544047459e-05</v>
+        <v>1.709878056332058e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>1.701629872054772e-05</v>
+        <v>1.690820988011783e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>1.68244231434519e-05</v>
+        <v>1.672642315117613e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>1.664117808660221e-05</v>
+        <v>1.655332015263826e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>1.64665029274138e-05</v>
+        <v>1.638880066064712e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>1.630033704330176e-05</v>
+        <v>1.62327644513455e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>1.61426198116814e-05</v>
+        <v>1.608511130087645e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.599329060996778e-05</v>
+        <v>1.594574098538276e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.585228881557603e-05</v>
+        <v>1.581455328100725e-05</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.571955380592141e-05</v>
+        <v>1.569144796389293e-05</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.559502495841902e-05</v>
+        <v>1.55763248101826e-05</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.547864165048402e-05</v>
+        <v>1.546908359601916e-05</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.537034325953153e-05</v>
+        <v>1.536962409754544e-05</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>1.527006916297679e-05</v>
+        <v>1.527784609090442e-05</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>1.517775873823492e-05</v>
+        <v>1.519364935223891e-05</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>1.509335136272103e-05</v>
+        <v>1.511693365769178e-05</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>1.501678641385037e-05</v>
+        <v>1.504759878340597e-05</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>1.494800326903804e-05</v>
+        <v>1.498554450552432e-05</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>1.488694130569922e-05</v>
+        <v>1.493067060018972e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>1.483353990124902e-05</v>
+        <v>1.488287684354502e-05</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>1.478773843310267e-05</v>
+        <v>1.484206301173315e-05</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>1.47494762786753e-05</v>
+        <v>1.480812888089697e-05</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>1.471869281538204e-05</v>
+        <v>1.478097422717934e-05</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>1.469532742063808e-05</v>
+        <v>1.476049882672317e-05</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>1.467931947185857e-05</v>
+        <v>1.474660245567133e-05</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>1.467060834645867e-05</v>
+        <v>1.473918489016669e-05</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>1.466913342185354e-05</v>
+        <v>1.473814590635215e-05</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>1.467483407545833e-05</v>
+        <v>1.474338528037056e-05</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>1.46876496846882e-05</v>
+        <v>1.475480278836483e-05</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>1.470751962695831e-05</v>
+        <v>1.477229820647783e-05</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>1.473438327968383e-05</v>
+        <v>1.479577131085244e-05</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>1.47681800202799e-05</v>
+        <v>1.482512187763153e-05</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>1.480884922616168e-05</v>
+        <v>1.486024968295799e-05</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>1.485633023736607e-05</v>
+        <v>1.490105447697235e-05</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>1.491042883991976e-05</v>
+        <v>1.494734310236624e-05</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>1.497051729884466e-05</v>
+        <v>1.499862082099126e-05</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>1.503588006984069e-05</v>
+        <v>1.505433180974859e-05</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>1.510580160860773e-05</v>
+        <v>1.511392024553935e-05</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>1.517956637084572e-05</v>
+        <v>1.517683030526471e-05</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>1.525645881225456e-05</v>
+        <v>1.524250616582584e-05</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>1.533576338853421e-05</v>
+        <v>1.531039200412394e-05</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>1.541676455538452e-05</v>
+        <v>1.537993199706009e-05</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>1.549874676850544e-05</v>
+        <v>1.545057032153549e-05</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>1.558099448359688e-05</v>
+        <v>1.55217511544513e-05</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>1.56627921563588e-05</v>
+        <v>1.559291867270872e-05</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>1.574342424249103e-05</v>
+        <v>1.566351705320883e-05</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>1.582217519769353e-05</v>
+        <v>1.573299047285284e-05</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>1.589832947766625e-05</v>
+        <v>1.580078310854193e-05</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>1.597117153810903e-05</v>
+        <v>1.58663391371772e-05</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>1.603998583472184e-05</v>
+        <v>1.592910273565985e-05</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>1.610405682320457e-05</v>
+        <v>1.598851808089102e-05</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>1.616266895925718e-05</v>
+        <v>1.604402934977192e-05</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>1.621510669857952e-05</v>
+        <v>1.609508071920365e-05</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>1.626065449687154e-05</v>
+        <v>1.614111636608739e-05</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>1.629859680983317e-05</v>
+        <v>1.618158046732432e-05</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>1.632821809316429e-05</v>
+        <v>1.621591719981557e-05</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>1.634880280256483e-05</v>
+        <v>1.624357074046232e-05</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>1.635963539373471e-05</v>
+        <v>1.626398526616572e-05</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.636000032237386e-05</v>
+        <v>1.627660495382695e-05</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>1.634918204418217e-05</v>
+        <v>1.628087398034715e-05</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>1.632657573743217e-05</v>
+        <v>1.627626833064705e-05</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>1.629216815659736e-05</v>
+        <v>1.626243393572914e-05</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>1.624614281810609e-05</v>
+        <v>1.62390732517286e-05</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>1.618868337089448e-05</v>
+        <v>1.620588877284703e-05</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>1.611997346389862e-05</v>
+        <v>1.6162582993286e-05</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>1.604019674605462e-05</v>
+        <v>1.61088584072471e-05</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>1.594953686629866e-05</v>
+        <v>1.604441750893195e-05</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>1.584817747356683e-05</v>
+        <v>1.59689627925421e-05</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>1.573630221679521e-05</v>
+        <v>1.588219675227913e-05</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>1.561409474491999e-05</v>
+        <v>1.578382188234469e-05</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>1.548173870687727e-05</v>
+        <v>1.567354067694033e-05</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>1.533941775160317e-05</v>
+        <v>1.555105563026765e-05</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.518731552803372e-05</v>
+        <v>1.541606923652817e-05</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>1.502561568510519e-05</v>
+        <v>1.526828398992359e-05</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>1.485450187175364e-05</v>
+        <v>1.510740238465546e-05</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>1.467415773691511e-05</v>
+        <v>1.493312691492527e-05</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>1.448476692952586e-05</v>
+        <v>1.474516007493478e-05</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>1.428645241430477e-05</v>
+        <v>1.454322087522377e-05</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>1.407869253187054e-05</v>
+        <v>1.432720377276939e-05</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>1.38605769095151e-05</v>
+        <v>1.409710902010963e-05</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>1.363118981424085e-05</v>
+        <v>1.385293832868535e-05</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>1.338961551304988e-05</v>
+        <v>1.359469340993711e-05</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>1.313493827294438e-05</v>
+        <v>1.332237597530558e-05</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>1.286624236092643e-05</v>
+        <v>1.303598773623127e-05</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>1.258261204399844e-05</v>
+        <v>1.273553040415511e-05</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>1.228313158916249e-05</v>
+        <v>1.242100569051764e-05</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>1.196688526342064e-05</v>
+        <v>1.209241530675935e-05</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>1.163295733377535e-05</v>
+        <v>1.174976096432122e-05</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>1.128043206722868e-05</v>
+        <v>1.139304437464375e-05</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>1.090839373078265e-05</v>
+        <v>1.102226724916743e-05</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>1.051645531882006e-05</v>
+        <v>1.063787964410247e-05</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>1.011070654592879e-05</v>
+        <v>1.024582367779509e-05</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>9.70157801965468e-06</v>
+        <v>9.855722414054126e-06</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>9.299580353002094e-06</v>
+        <v>9.4772667588887e-06</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>8.915224158975925e-06</v>
+        <v>9.120147618308432e-06</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>8.55902005058052e-06</v>
+        <v>8.794055898322425e-06</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>8.241478640820408e-06</v>
+        <v>8.508682504939961e-06</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>7.973110542700014e-06</v>
+        <v>8.273718344170226e-06</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>7.764426369224116e-06</v>
+        <v>8.098854322022713e-06</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>7.625936733397109e-06</v>
+        <v>7.993781344506581e-06</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>7.56815224822352e-06</v>
+        <v>7.968190317631121e-06</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>7.601583526707933e-06</v>
+        <v>8.031772147405635e-06</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>7.736741181854839e-06</v>
+        <v>8.194217739839376e-06</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>7.983226127211251e-06</v>
+        <v>8.464301904003916e-06</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>8.337697382549744e-06</v>
+        <v>8.837766541061608e-06</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>8.787183149760514e-06</v>
+        <v>9.300655005367095e-06</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>9.318482326492852e-06</v>
+        <v>9.838779734447341e-06</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>9.918393810396201e-06</v>
+        <v>1.043795316582944e-05</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.057371649911918e-05</v>
+        <v>1.108398773703969e-05</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.127124929031121e-05</v>
+        <v>1.176269588560515e-05</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>1.199779108162144e-05</v>
+        <v>1.245989004905264e-05</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>1.274014077069937e-05</v>
+        <v>1.31613826649093e-05</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>1.348509725519349e-05</v>
+        <v>1.385298617070131e-05</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>1.42194594327533e-05</v>
+        <v>1.452051300395581e-05</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>1.493002620102825e-05</v>
+        <v>1.51497756021999e-05</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>1.560359645766687e-05</v>
+        <v>1.572658640295981e-05</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>1.622696910031865e-05</v>
+        <v>1.623675784376267e-05</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>1.67877506675474e-05</v>
+        <v>1.666921972464283e-05</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>1.728484927922478e-05</v>
+        <v>1.705652411043757e-05</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>1.772548913613846e-05</v>
+        <v>1.74633217850913e-05</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>1.811720929476877e-05</v>
+        <v>1.795499641745512e-05</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>1.85330171327651e-05</v>
+        <v>1.859072136693658e-05</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>1.921617838919234e-05</v>
+        <v>1.941214870270655e-05</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>2.023195738811463e-05</v>
+        <v>2.038314235067374e-05</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>2.130916357498564e-05</v>
+        <v>2.134510266381653e-05</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>2.217940970742605e-05</v>
+        <v>2.214432206644806e-05</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>2.276836151775489e-05</v>
+        <v>2.271996493609341e-05</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>2.30708420225547e-05</v>
+        <v>2.304429368486596e-05</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>2.308175904687943e-05</v>
+        <v>2.308961131342643e-05</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>2.279962780667144e-05</v>
+        <v>2.283253835699233e-05</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>2.229409670075799e-05</v>
+        <v>2.233483166806536e-05</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>2.169993345064355e-05</v>
+        <v>2.173618667987619e-05</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>2.11543074539637e-05</v>
+        <v>2.117917329088845e-05</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>2.07943881083548e-05</v>
+        <v>2.080636139956655e-05</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>2.075734481145237e-05</v>
+        <v>2.076032090437408e-05</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>2.118034696089221e-05</v>
+        <v>2.11836217037749e-05</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>2.220056395431072e-05</v>
+        <v>2.221883369623348e-05</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>2.395516518934286e-05</v>
+        <v>2.400852678021282e-05</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>2.649444473902778e-05</v>
+        <v>2.66036404795138e-05</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>2.885993951415992e-05</v>
+        <v>2.899114365481074e-05</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>2.976625966727309e-05</v>
+        <v>2.981117592949488e-05</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>2.952151205467888e-05</v>
+        <v>2.9374626978623e-05</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>2.892039835751022e-05</v>
+        <v>2.850380808734012e-05</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>2.838309548567677e-05</v>
+        <v>2.767359694367426e-05</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>2.785246350820335e-05</v>
+        <v>2.691605816178767e-05</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>2.724039059283703e-05</v>
+        <v>2.623452331809185e-05</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>2.645877697885867e-05</v>
+        <v>2.563232617035906e-05</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>2.548325589650025e-05</v>
+        <v>2.512431721124733e-05</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>2.45019637585559e-05</v>
+        <v>2.476374687007636e-05</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>2.374727280562563e-05</v>
+        <v>2.461185911755908e-05</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>2.345155527830955e-05</v>
+        <v>2.472989792440859e-05</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>2.382021483972606e-05</v>
+        <v>2.516639733211391e-05</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>2.469597990025052e-05</v>
+        <v>2.579896739491783e-05</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>2.566191338911657e-05</v>
+        <v>2.638284130497677e-05</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>2.629543527212296e-05</v>
+        <v>2.667059280138838e-05</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>2.626400623884045e-05</v>
+        <v>2.646784601777612e-05</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>2.562166129394469e-05</v>
+        <v>2.580798780523926e-05</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>2.452615898406119e-05</v>
+        <v>2.478551708274553e-05</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>2.313525912420277e-05</v>
+        <v>2.349493351657358e-05</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>2.160672148509734e-05</v>
+        <v>2.203073688212299e-05</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>2.009349502656939e-05</v>
+        <v>2.049928104491714e-05</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>1.873048177599531e-05</v>
+        <v>1.905138845759873e-05</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>1.764835272982556e-05</v>
+        <v>1.784830705468734e-05</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>1.697777888451129e-05</v>
+        <v>1.705128477070327e-05</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>1.684002027486533e-05</v>
+        <v>1.681088439685999e-05</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>1.720858943526415e-05</v>
+        <v>1.710991719418178e-05</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>1.793960977837466e-05</v>
+        <v>1.77979115949736e-05</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>1.888596630414668e-05</v>
+        <v>1.872071915926114e-05</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>1.990054401252868e-05</v>
+        <v>1.972419144706878e-05</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>2.083622790347041e-05</v>
+        <v>2.065418001842214e-05</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>2.154590297692126e-05</v>
+        <v>2.13565364333465e-05</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>2.188245423283065e-05</v>
+        <v>2.167711225186715e-05</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>2.169939581890989e-05</v>
+        <v>2.146242424722861e-05</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>2.093219149465189e-05</v>
+        <v>2.064563650887815e-05</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>1.967869541091496e-05</v>
+        <v>1.933161243371602e-05</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>1.805587846870764e-05</v>
+        <v>1.764542802318111e-05</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>1.618071156903687e-05</v>
+        <v>1.571215927871057e-05</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>1.417016561291002e-05</v>
+        <v>1.365688220174209e-05</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>1.214121150133358e-05</v>
+        <v>1.160467279371243e-05</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.021082013531681e-05</v>
+        <v>9.680607056061126e-06</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>8.495962415866174e-06</v>
+        <v>8.009760990224925e-06</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>7.113363960338814e-06</v>
+        <v>6.716934696277006e-06</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>6.129029536120184e-06</v>
+        <v>5.86987615643791e-06</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>5.496420879740997e-06</v>
+        <v>5.40974205441202e-06</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>5.153867834838144e-06</v>
+        <v>5.260668331207288e-06</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>5.039700245048505e-06</v>
+        <v>5.346790927831741e-06</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>5.092247954009051e-06</v>
+        <v>5.592245785293224e-06</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>5.24984080535657e-06</v>
+        <v>5.921168844599676e-06</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>5.450808642728044e-06</v>
+        <v>6.25769604675919e-06</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>5.633481309760162e-06</v>
+        <v>6.525963332779386e-06</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>5.739898592808076e-06</v>
+        <v>6.654785933077575e-06</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>5.768525122333009e-06</v>
+        <v>6.644146800997868e-06</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>5.76173328178486e-06</v>
+        <v>6.549409012745876e-06</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>5.763052505827486e-06</v>
+        <v>6.427395014092492e-06</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>5.816012229124717e-06</v>
+        <v>6.334927250808478e-06</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>5.964141886340485e-06</v>
+        <v>6.32882816866465e-06</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>6.250970912138503e-06</v>
+        <v>6.465920213431819e-06</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>6.720028741182651e-06</v>
+        <v>6.803025830880751e-06</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>7.414844808136756e-06</v>
+        <v>7.396967466782232e-06</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>8.362657374681532e-06</v>
+        <v>8.284931449525468e-06</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>9.523518855388032e-06</v>
+        <v>9.423123494158997e-06</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>1.084016434035415e-05</v>
+        <v>1.074687635486807e-05</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>1.225532890194956e-05</v>
+        <v>1.219152276446986e-05</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>1.37117476125446e-05</v>
+        <v>1.369239545578218e-05</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>1.515215554450762e-05</v>
+        <v>1.518482716162083e-05</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>1.651928777020895e-05</v>
+        <v>1.660415061480363e-05</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>1.775587936201877e-05</v>
+        <v>1.788569854814828e-05</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>1.880521494604383e-05</v>
+        <v>1.89653700120865e-05</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>1.971364921497137e-05</v>
+        <v>1.988527822739603e-05</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>2.075122789825681e-05</v>
+        <v>2.091805104118977e-05</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>2.221731482398441e-05</v>
+        <v>2.236652873397961e-05</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>2.441127382023962e-05</v>
+        <v>2.453355158627863e-05</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>2.763246871510752e-05</v>
+        <v>2.77219598785995e-05</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>3.218026333667555e-05</v>
+        <v>3.223459389145726e-05</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>3.835402151302479e-05</v>
+        <v>3.837429390536066e-05</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>4.645310707224203e-05</v>
+        <v>4.644390020082404e-05</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>5.677041547816772e-05</v>
+        <v>5.673976305702927e-05</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>6.923649369356522e-05</v>
+        <v>6.919467217349854e-05</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>8.323457648263102e-05</v>
+        <v>8.319227425737442e-05</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>9.81024536770628e-05</v>
+        <v>9.807061906713608e-05</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>0.0001131779151085597</v>
+        <v>0.0001131677563612642</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>0.0001277987506088004</v>
+        <v>0.0001278217358982189</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>0.0001413027500094841</v>
+        <v>0.000141370607436481</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>0.000153027703142308</v>
+        <v>0.0001531524207345292</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>0.000162311399838954</v>
+        <v>0.0001625052255508266</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>0.0001686207664479767</v>
+        <v>0.0001688957108092159</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>0.0001720985780461193</v>
+        <v>0.0001724638112235153</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>0.0001731079673824476</v>
+        <v>0.000173568970502666</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>0.0001720121884761983</v>
+        <v>0.0001725707531587247</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>0.0001691744953466097</v>
+        <v>0.00016982872370375</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>0.0001649581420129192</v>
+        <v>0.0001657024466497995</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>0.0001597263824943615</v>
+        <v>0.0001605514865089281</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>0.0001538424708101789</v>
+        <v>0.0001547354077931981</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>0.0001476696561238567</v>
+        <v>0.0001486137702353657</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>0.0001415061041482625</v>
+        <v>0.0001424820748137794</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>0.0001354217378636532</v>
+        <v>0.0001364111733061872</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>0.0001294364745451546</v>
+        <v>0.0001304226990922101</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>0.0001235702314678948</v>
+        <v>0.0001245382855514715</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>0.0001178429259069998</v>
+        <v>0.0001187795660635925</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>0.0001122744751376029</v>
+        <v>0.0001131681740082018</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>0.0001068847964348299</v>
+        <v>0.0001077257427649205</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>0.0001016938070738091</v>
+        <v>0.000102473905713372</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>9.672142432966666e-05</v>
+        <v>9.74342962331778e-05</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>9.19875654775354e-05</v>
+        <v>9.26285477039659e-05</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>8.751214779254131e-05</v>
+        <v>8.807829350535758e-05</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>8.331508854981093e-05</v>
+        <v>8.380516701697458e-05</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>7.941630502447633e-05</v>
+        <v>7.98308016184443e-05</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>7.583571449166391e-05</v>
+        <v>7.617683068938835e-05</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>7.259323422650064e-05</v>
+        <v>7.286488760942888e-05</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>6.970878150411772e-05</v>
+        <v>6.991660575819247e-05</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>6.720227359964194e-05</v>
+        <v>6.735361851530107e-05</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>6.508922266245225e-05</v>
+        <v>6.519293404380328e-05</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>6.335571356669102e-05</v>
+        <v>6.342066297307363e-05</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>6.197577397093064e-05</v>
+        <v>6.201025630902168e-05</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>6.092339510732137e-05</v>
+        <v>6.093512681118211e-05</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>6.01725682080143e-05</v>
+        <v>6.016868723909043e-05</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>5.96972845051604e-05</v>
+        <v>5.968435035228202e-05</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>5.947153523091115e-05</v>
+        <v>5.945552891029285e-05</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>5.946931161741743e-05</v>
+        <v>5.945563567265813e-05</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>5.966460489683046e-05</v>
+        <v>5.965808339891355e-05</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>6.003140630130115e-05</v>
+        <v>6.003628484859442e-05</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>6.054370706298065e-05</v>
+        <v>6.056365278123634e-05</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>6.117549841402038e-05</v>
+        <v>6.121359995637513e-05</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>6.190077158657087e-05</v>
+        <v>6.195953913354576e-05</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>6.269351781278349e-05</v>
+        <v>6.277488307228398e-05</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>6.35277283248097e-05</v>
+        <v>6.363304453212575e-05</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>6.43773943547995e-05</v>
+        <v>6.450743627260539e-05</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>6.521650713490549e-05</v>
+        <v>6.537147105325999e-05</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>6.601905789727797e-05</v>
+        <v>6.619856163362428e-05</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>6.67590378740674e-05</v>
+        <v>6.696212077323309e-05</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>6.741043829742619e-05</v>
+        <v>6.763556123162329e-05</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>6.794725039950429e-05</v>
+        <v>6.819229576832923e-05</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>6.834346541245377e-05</v>
+        <v>6.860573714288743e-05</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>6.857307456842513e-05</v>
+        <v>6.884929811483281e-05</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>6.861006909956953e-05</v>
+        <v>6.889639144370091e-05</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>6.842844023803814e-05</v>
+        <v>6.872042988902732e-05</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>6.800217921598186e-05</v>
+        <v>6.829482621034746e-05</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>6.730781491045995e-05</v>
+        <v>6.7595585826795e-05</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>6.63514634375938e-05</v>
+        <v>6.662894283098553e-05</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>6.515837090296167e-05</v>
+        <v>6.542067603222082e-05</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>6.375410411264498e-05</v>
+        <v>6.39968918929094e-05</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>6.216422987272122e-05</v>
+        <v>6.238369687545565e-05</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>6.041431498927167e-05</v>
+        <v>6.06071974422679e-05</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>5.852992626837814e-05</v>
+        <v>5.8693500055755e-05</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>5.653663051611729e-05</v>
+        <v>5.666871117832058e-05</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>5.445999453857085e-05</v>
+        <v>5.455893727237336e-05</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>5.23255851418208e-05</v>
+        <v>5.239028480032242e-05</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>5.015896913194336e-05</v>
+        <v>5.01888602245709e-05</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>4.798571331502248e-05</v>
+        <v>4.798077000752979e-05</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>4.583138449713425e-05</v>
+        <v>4.579212061160218e-05</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>4.372154948436075e-05</v>
+        <v>4.364901849919714e-05</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>4.168177508278383e-05</v>
+        <v>4.15775701327236e-05</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>3.973762809847984e-05</v>
+        <v>3.960388197458484e-05</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>3.791467533753077e-05</v>
+        <v>3.77540604871899e-05</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>3.623799113802517e-05</v>
+        <v>3.605370873255507e-05</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>3.471842092803768e-05</v>
+        <v>3.451388499215444e-05</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>3.335075361427732e-05</v>
+        <v>3.312923458404396e-05</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>3.212891843920922e-05</v>
+        <v>3.189352407817066e-05</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>3.104684464529525e-05</v>
+        <v>3.080052004447827e-05</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>3.009846147500143e-05</v>
+        <v>2.984398905291473e-05</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>2.927769817079016e-05</v>
+        <v>2.901769767342426e-05</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>2.857848397512642e-05</v>
+        <v>2.831541247595377e-05</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>2.799474813047476e-05</v>
+        <v>2.773090003044966e-05</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>2.752041987929821e-05</v>
+        <v>2.725792690685687e-05</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>2.714942846406141e-05</v>
+        <v>2.689025967512191e-05</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>2.687570312722867e-05</v>
+        <v>2.662166490519094e-05</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>2.669317311126356e-05</v>
+        <v>2.644590916700945e-05</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>2.659576765863044e-05</v>
+        <v>2.635675903052367e-05</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>2.657741601179339e-05</v>
+        <v>2.634798106567953e-05</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>2.663204741321643e-05</v>
+        <v>2.641334184242298e-05</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>2.675359110536371e-05</v>
+        <v>2.654660793070002e-05</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>2.693597633069911e-05</v>
+        <v>2.674154590045641e-05</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>2.717313233168704e-05</v>
+        <v>2.699192232163845e-05</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>2.745898835079115e-05</v>
+        <v>2.729150376419166e-05</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>2.778747363047604e-05</v>
+        <v>2.763405679806255e-05</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>2.815251741320556e-05</v>
+        <v>2.801334799319682e-05</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>2.854804894144342e-05</v>
+        <v>2.842314391954006e-05</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>2.896799745765441e-05</v>
+        <v>2.885721114703895e-05</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>2.940629220430225e-05</v>
+        <v>2.93093162456391e-05</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>2.985686242385061e-05</v>
+        <v>2.977322578528603e-05</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>3.03136373587644e-05</v>
+        <v>3.024270633592657e-05</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>3.077054625150728e-05</v>
+        <v>3.071152446750623e-05</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>3.122151834454292e-05</v>
+        <v>3.117344674997058e-05</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>3.166048288033624e-05</v>
+        <v>3.16222397532664e-05</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>3.208136910135087e-05</v>
+        <v>3.205167004733922e-05</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>3.247810625005056e-05</v>
+        <v>3.245550420213465e-05</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>3.284462356890011e-05</v>
+        <v>3.28275087875994e-05</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>3.317485030036295e-05</v>
+        <v>3.316145037367875e-05</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>3.346271568690374e-05</v>
+        <v>3.345109553031925e-05</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>3.370337070302357e-05</v>
+        <v>3.369145091305626e-05</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>3.391063176127723e-05</v>
+        <v>3.389646901828761e-05</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>3.411288330025907e-05</v>
+        <v>3.40948892176097e-05</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>3.43388961959345e-05</v>
+        <v>3.431584312527163e-05</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>3.461744132426888e-05</v>
+        <v>3.45884623555224e-05</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>3.497728956122831e-05</v>
+        <v>3.494187852261178e-05</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>3.544721178277817e-05</v>
+        <v>3.540522324078883e-05</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>3.605597886488346e-05</v>
+        <v>3.600762812430222e-05</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>3.68323616835109e-05</v>
+        <v>3.677822478740232e-05</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>3.780513111462465e-05</v>
+        <v>3.774614484433696e-05</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>3.900305803419204e-05</v>
+        <v>3.894051990935715e-05</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>4.045491331817792e-05</v>
+        <v>4.039048159671139e-05</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>4.218946784254622e-05</v>
+        <v>4.212516152064729e-05</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>4.423549248326567e-05</v>
+        <v>4.417369129541723e-05</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>4.662175811630043e-05</v>
+        <v>4.656520253526907e-05</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>4.937703561761348e-05</v>
+        <v>4.932882685444942e-05</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>5.253009586317539e-05</v>
+        <v>5.249369586721254e-05</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>5.610970972894947e-05</v>
+        <v>5.608894118780541e-05</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>6.014464809089746e-05</v>
+        <v>6.014369443047341e-05</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>6.466368182499227e-05</v>
+        <v>6.468708720947315e-05</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>6.969558180719609e-05</v>
+        <v>6.974825113905046e-05</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>7.526911891346927e-05</v>
+        <v>7.535631783344934e-05</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>8.139857547620473e-05</v>
+        <v>8.15258256012514e-05</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>8.794242269207772e-05</v>
+        <v>8.811437499407581e-05</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>9.466429277300864e-05</v>
+        <v>9.488404182796055e-05</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>0.0001013264741033842</v>
+        <v>0.0001015955483746163</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>0.0001076912550675672</v>
+        <v>0.0001080096169057299</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>0.0001135209240499439</v>
+        <v>0.0001138869696930113</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>0.0001185777694348829</v>
+        <v>0.000118988329008153</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>0.0001226240796067553</v>
+        <v>0.0001230744171228502</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>0.0001254221429499432</v>
+        <v>0.0001259059563088087</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>0.0001267342478488168</v>
+        <v>0.0001272436688377229</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>0.0001263226826877518</v>
+        <v>0.0001268482769812921</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>0.0001239497358511222</v>
+        <v>0.0001244805030112143</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>0.0001193776957233019</v>
+        <v>0.0001199010691991874</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>0.0001124521352422271</v>
+        <v>0.0001129543467724538</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>0.0001035911077878292</v>
+        <v>0.0001040596922225624</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>9.345332821362044e-05</v>
+        <v>9.387817650123293e-05</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>8.269834419653832e-05</v>
+        <v>8.307170702753335e-05</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>7.198570341354753e-05</v>
+        <v>7.230219122055915e-05</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>6.197495354161267e-05</v>
+        <v>6.223153649940555e-05</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>5.332564225767127e-05</v>
+        <v>5.352165028314061e-05</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>4.669731723868888e-05</v>
+        <v>4.683443999086058e-05</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>4.27495261616237e-05</v>
+        <v>4.283181304165434e-05</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>4.199004277563572e-05</v>
+        <v>4.202350092220429e-05</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>4.423353095834548e-05</v>
+        <v>4.422428940294454e-05</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>4.909691160444293e-05</v>
+        <v>4.905069750822953e-05</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>5.619709068684438e-05</v>
+        <v>5.611922930111652e-05</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>6.515097417844505e-05</v>
+        <v>6.504638884464183e-05</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>7.557546805216866e-05</v>
+        <v>7.544868020187017e-05</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>8.708747828091517e-05</v>
+        <v>8.694260743584253e-05</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>9.930391083758063e-05</v>
+        <v>9.914467460959606e-05</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>0.0001118416716950947</v>
+        <v>0.0001116713857862014</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>0.0001243176668263538</v>
+        <v>0.000124139245028696</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>0.0001363488022042547</v>
+        <v>0.0001361647564001177</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>0.0001475519838017267</v>
+        <v>0.0001473644239635368</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>0.0001575441175916659</v>
+        <v>0.0001573547517819904</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>0.000165942109546973</v>
+        <v>0.0001657522439185202</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>0.0001723628656405704</v>
+        <v>0.0001721734044361899</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>0.0001764232918453574</v>
+        <v>0.0001762347373980395</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>0.0001777402941342411</v>
+        <v>0.0001775527468671173</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>0.0001760100376248687</v>
+        <v>0.0001758232592994517</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>0.0001714600465270812</v>
+        <v>0.0001712738842640842</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>0.00016453625938321</v>
+        <v>0.0001643508199556481</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>0.0001556852861854446</v>
+        <v>0.0001555009365544474</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>0.0001453537369260028</v>
+        <v>0.000145171104240814</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>0.0001339882215970678</v>
+        <v>0.0001338081931950454</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>0.0001220353501908509</v>
+        <v>0.0001218590735974673</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>0.0001099417326995652</v>
+        <v>0.0001097706156284071</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>9.815397911539131e-05</v>
+        <v>9.798968946815953e-05</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>8.711869943054233e-05</v>
+        <v>8.696316529705214e-05</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>7.728222035641246e-05</v>
+        <v>7.713762963367684e-05</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>6.893396125822196e-05</v>
+        <v>6.880255066336676e-05</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>6.194614453054677e-05</v>
+        <v>6.182963861259131e-05</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>5.612242072669419e-05</v>
+        <v>5.602193966071606e-05</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>5.126644039995645e-05</v>
+        <v>5.118249998709152e-05</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>4.71818541036452e-05</v>
+        <v>4.71143657710876e-05</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>4.367231239105575e-05</v>
+        <v>4.362058319205792e-05</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>4.054209119700014e-05</v>
+        <v>4.05048260354693e-05</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>3.765759605913449e-05</v>
+        <v>3.763311869600297e-05</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>3.499922393427377e-05</v>
+        <v>3.498588247584366e-05</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>3.255958297868464e-05</v>
+        <v>3.255579331409943e-05</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>3.033128134863297e-05</v>
+        <v>3.033552714987759e-05</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>2.83069272003787e-05</v>
+        <v>2.831775992227953e-05</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>2.647912869018789e-05</v>
+        <v>2.649516757041275e-05</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>2.48404939743259e-05</v>
+        <v>2.486042603338403e-05</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>2.338363120905374e-05</v>
+        <v>2.340621125029581e-05</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>2.210114855063691e-05</v>
+        <v>2.212519916025506e-05</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>2.098565415534032e-05</v>
+        <v>2.101006570236809e-05</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>2.00297561794259e-05</v>
+        <v>2.005348681573829e-05</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.92260627791587e-05</v>
+        <v>1.924813843947213e-05</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>1.856718211080321e-05</v>
+        <v>1.858669651267555e-05</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>1.80457223306222e-05</v>
+        <v>1.806183697445275e-05</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>1.765429159488058e-05</v>
+        <v>1.766623576391007e-05</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>1.73854980598416e-05</v>
+        <v>1.739256882015222e-05</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>1.723194988176965e-05</v>
+        <v>1.723351208228498e-05</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>1.718625521692866e-05</v>
+        <v>1.718174148941377e-05</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>1.724102222158251e-05</v>
+        <v>1.722993298064387e-05</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>1.738885905199526e-05</v>
+        <v>1.737076249508079e-05</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>1.76223738644306e-05</v>
+        <v>1.759690597182966e-05</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>1.793417481515294e-05</v>
+        <v>1.790103934999631e-05</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>1.831687006042604e-05</v>
+        <v>1.827583856868595e-05</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>1.876306775651343e-05</v>
+        <v>1.871397956700356e-05</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>1.92653760596799e-05</v>
+        <v>1.920813828405532e-05</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>1.981640312618848e-05</v>
+        <v>1.975099065894575e-05</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.040875711230416e-05</v>
+        <v>2.033521263078124e-05</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.103504617429039e-05</v>
+        <v>2.095348013866669e-05</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.168787846841055e-05</v>
+        <v>2.159846912170692e-05</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>2.235986215092979e-05</v>
+        <v>2.226285551900849e-05</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>2.304360537811145e-05</v>
+        <v>2.293931526967622e-05</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>2.37317163062189e-05</v>
+        <v>2.362052431281489e-05</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>2.441680309151733e-05</v>
+        <v>2.429915858753111e-05</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>2.509147389027008e-05</v>
+        <v>2.496789403292969e-05</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>2.574833685874052e-05</v>
+        <v>2.561940658811543e-05</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>2.63800001531938e-05</v>
+        <v>2.62463721921949e-05</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>2.697907192989276e-05</v>
+        <v>2.684146678427238e-05</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>2.753816034510243e-05</v>
+        <v>2.739736630345434e-05</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>2.804987355508622e-05</v>
+        <v>2.790674668884563e-05</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>2.850682191725029e-05</v>
+        <v>2.836228605450111e-05</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>2.890391839615399e-05</v>
+        <v>2.875893772150543e-05</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>2.924273798125216e-05</v>
+        <v>2.909823776035136e-05</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>2.952605350788323e-05</v>
+        <v>2.938290583351831e-05</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>2.975663781138641e-05</v>
+        <v>2.961566160348648e-05</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>2.993726372710008e-05</v>
+        <v>2.979922473273526e-05</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>3.007070409036282e-05</v>
+        <v>2.993631488374419e-05</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>3.015973173651355e-05</v>
+        <v>3.002965171899321e-05</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>3.020711950089082e-05</v>
+        <v>3.008195490096183e-05</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>3.021564021883329e-05</v>
+        <v>3.009594409212973e-05</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>3.018806672567968e-05</v>
+        <v>3.007433895497659e-05</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>3.012717185676861e-05</v>
+        <v>3.001985915198207e-05</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>3.003572844743889e-05</v>
+        <v>2.99352243456259e-05</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>2.991650933302901e-05</v>
+        <v>2.982315419838761e-05</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>2.977228734887787e-05</v>
+        <v>2.968636837274707e-05</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>2.960583533032387e-05</v>
+        <v>2.952758653118369e-05</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>2.941992611270581e-05</v>
+        <v>2.934952833617724e-05</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>2.921733253136258e-05</v>
+        <v>2.915491345020761e-05</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>2.900082742163245e-05</v>
+        <v>2.894646153575407e-05</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>2.877318361885432e-05</v>
+        <v>2.872689225529648e-05</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>2.853717395836704e-05</v>
+        <v>2.84989252713147e-05</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>2.829557127550889e-05</v>
+        <v>2.8265280246288e-05</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>2.805114840561875e-05</v>
+        <v>2.802867684269625e-05</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>2.780667818403552e-05</v>
+        <v>2.779183472301934e-05</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>2.756493344609742e-05</v>
+        <v>2.755747354973649e-05</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>2.732868702714358e-05</v>
+        <v>2.732831298532779e-05</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>2.710071176251225e-05</v>
+        <v>2.710707269227251e-05</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>2.688378048754229e-05</v>
+        <v>2.689647233305049e-05</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>2.66806660375726e-05</v>
+        <v>2.669923157014162e-05</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>2.649414124794145e-05</v>
+        <v>2.651807006602517e-05</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>2.632697895398773e-05</v>
+        <v>2.6355707483181e-05</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>2.618195199105025e-05</v>
+        <v>2.621486348408892e-05</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>2.606183319446739e-05</v>
+        <v>2.609825773122831e-05</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>2.5969395399578e-05</v>
+        <v>2.600860988707899e-05</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>2.590741144172078e-05</v>
+        <v>2.594863961412066e-05</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>2.58786541562343e-05</v>
+        <v>2.59210665748329e-05</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>2.588589637845729e-05</v>
+        <v>2.59286104316954e-05</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>2.593191094372844e-05</v>
+        <v>2.597399084718785e-05</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>2.601947063627365e-05</v>
+        <v>2.605992743353895e-05</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>2.614988126407776e-05</v>
+        <v>2.618769756118187e-05</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>2.631914528306776e-05</v>
+        <v>2.635336466744025e-05</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>2.652206710552409e-05</v>
+        <v>2.655181434600838e-05</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>2.675345114372652e-05</v>
+        <v>2.677793219057989e-05</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>2.700810180995561e-05</v>
+        <v>2.702660379484922e-05</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>2.728082351649129e-05</v>
+        <v>2.729271475251015e-05</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>2.756642067561342e-05</v>
+        <v>2.757115065725642e-05</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>2.785969769960265e-05</v>
+        <v>2.785679710278254e-05</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>2.815545900073886e-05</v>
+        <v>2.814453968278225e-05</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>2.844850899130192e-05</v>
+        <v>2.84292639909493e-05</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>2.873365208357249e-05</v>
+        <v>2.870585562097819e-05</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>2.900569268983042e-05</v>
+        <v>2.896920016656265e-05</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>2.925943522235565e-05</v>
+        <v>2.921418322139648e-05</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>2.948968409342874e-05</v>
+        <v>2.943569037917412e-05</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>2.969124371532944e-05</v>
+        <v>2.962860723358916e-05</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>2.985891850033822e-05</v>
+        <v>2.978781937833596e-05</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>2.998751286073502e-05</v>
+        <v>2.990821240710831e-05</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>3.00721645275551e-05</v>
+        <v>2.998500655606452e-05</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>3.011386318244669e-05</v>
+        <v>3.001929725183445e-05</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>3.011859098245694e-05</v>
+        <v>3.001719222307056e-05</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>3.009249014761395e-05</v>
+        <v>2.998495989706454e-05</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>3.004170289794577e-05</v>
+        <v>2.992886870110803e-05</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>2.997237145348045e-05</v>
+        <v>2.985518706249268e-05</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>2.989063803424615e-05</v>
+        <v>2.977018340851026e-05</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>2.980264486027081e-05</v>
+        <v>2.968012616645228e-05</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>2.971453415158262e-05</v>
+        <v>2.959128376361056e-05</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>2.963244812820948e-05</v>
+        <v>2.950992462727658e-05</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>2.956252901017959e-05</v>
+        <v>2.944231718474213e-05</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>2.951091901752101e-05</v>
+        <v>2.939472986329888e-05</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>2.948376037026174e-05</v>
+        <v>2.937343109023842e-05</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>2.948719528842989e-05</v>
+        <v>2.938468929285247e-05</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>2.952733565533087e-05</v>
+        <v>2.943474052976931e-05</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>2.960508571610758e-05</v>
+        <v>2.952426441607843e-05</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>2.971028096494975e-05</v>
+        <v>2.964213043571239e-05</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>2.983134093923118e-05</v>
+        <v>2.977569727560606e-05</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>2.995668517632601e-05</v>
+        <v>2.991232362269467e-05</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>3.007473321360796e-05</v>
+        <v>3.0039368163913e-05</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>3.017390458845117e-05</v>
+        <v>3.014418958619626e-05</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>3.024261883822944e-05</v>
+        <v>3.021414657647933e-05</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>3.026929550031669e-05</v>
+        <v>3.02365978216972e-05</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>3.024298097536844e-05</v>
+        <v>3.019960217181213e-05</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>3.017245741956143e-05</v>
+        <v>3.011326195378901e-05</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>3.008974594856582e-05</v>
+        <v>3.001363580868501e-05</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>3.002820105138038e-05</v>
+        <v>2.993827166355259e-05</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>3.002117721700412e-05</v>
+        <v>2.992471744544452e-05</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>3.010202893443585e-05</v>
+        <v>3.001052108141334e-05</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>3.030411069267467e-05</v>
+        <v>3.023323049851188e-05</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>3.065664995546424e-05</v>
+        <v>3.062580862151427e-05</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>3.111913066733736e-05</v>
+        <v>3.114373540023868e-05</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>3.159294303733552e-05</v>
+        <v>3.167795037267579e-05</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>3.197770463080608e-05</v>
+        <v>3.211742372240868e-05</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>3.217303301309676e-05</v>
+        <v>3.23511256330208e-05</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>3.21091138394586e-05</v>
+        <v>3.230128997486616e-05</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>3.185290710250382e-05</v>
+        <v>3.203898617624853e-05</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>3.150961180658793e-05</v>
+        <v>3.167689472174196e-05</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>3.118442873853392e-05</v>
+        <v>3.132769803557195e-05</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>3.096464589242025e-05</v>
+        <v>3.108502705126066e-05</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>3.085769505488624e-05</v>
+        <v>3.09575801172595e-05</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>3.084876311866761e-05</v>
+        <v>3.093039660290679e-05</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>3.092303603452097e-05</v>
+        <v>3.098851487568112e-05</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>3.106569975320316e-05</v>
+        <v>3.111697330306124e-05</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>3.126194022547088e-05</v>
+        <v>3.130081025252577e-05</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>3.149694340208059e-05</v>
+        <v>3.152506409155313e-05</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>3.175589523378941e-05</v>
+        <v>3.177477318762241e-05</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>3.202398167135365e-05</v>
+        <v>3.203497590821183e-05</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>3.228638866553047e-05</v>
+        <v>3.22907106208005e-05</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>3.252830216707636e-05</v>
+        <v>3.252701569286684e-05</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>3.273490812674802e-05</v>
+        <v>3.272892949188949e-05</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>3.289139249530203e-05</v>
+        <v>3.288149038534701e-05</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>3.298350375917997e-05</v>
+        <v>3.297030551226617e-05</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>3.301057457021709e-05</v>
+        <v>3.299471676128923e-05</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>3.298589054120292e-05</v>
+        <v>3.296817365443506e-05</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>3.292337359631497e-05</v>
+        <v>3.290476907879779e-05</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>3.283694565973086e-05</v>
+        <v>3.281859592147166e-05</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>3.274052865562796e-05</v>
+        <v>3.272374706955071e-05</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>3.264804450818388e-05</v>
+        <v>3.263431541012917e-05</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>3.257341514157622e-05</v>
+        <v>3.256439383030129e-05</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>3.253056247998237e-05</v>
+        <v>3.25280752171611e-05</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>3.253340844757995e-05</v>
+        <v>3.253945245780284e-05</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>3.259587496854642e-05</v>
+        <v>3.261261843932061e-05</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>3.273188396705942e-05</v>
+        <v>3.27616660488087e-05</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>3.295535736729622e-05</v>
+        <v>3.3000688173361e-05</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>3.327752840573505e-05</v>
+        <v>3.334086054716812e-05</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>3.369439896845266e-05</v>
+        <v>3.377683330419554e-05</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>3.419661364409228e-05</v>
+        <v>3.429744405664677e-05</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>3.477481110043367e-05</v>
+        <v>3.489152399274967e-05</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>3.541963000525525e-05</v>
+        <v>3.554790430073076e-05</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>3.612170902633521e-05</v>
+        <v>3.625541616881632e-05</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>3.687168683145368e-05</v>
+        <v>3.700289078523453e-05</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>3.766020208838889e-05</v>
+        <v>3.777915933821174e-05</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>3.847789416845319e-05</v>
+        <v>3.857305374709263e-05</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>3.944240451828761e-05</v>
+        <v>3.950538751444051e-05</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>4.115266980972812e-05</v>
+        <v>4.11971400310729e-05</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>4.431560844098577e-05</v>
+        <v>4.438146543394858e-05</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>4.924961290090331e-05</v>
+        <v>4.938512574742361e-05</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>5.565428363225423e-05</v>
+        <v>5.588763605350016e-05</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>6.317400591453148e-05</v>
+        <v>6.351075722445464e-05</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>7.145316502721091e-05</v>
+        <v>7.187625013254616e-05</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>8.01361462497658e-05</v>
+        <v>8.06058756500313e-05</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>8.88656441213643e-05</v>
+        <v>8.932003663666979e-05</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>9.717655215089886e-05</v>
+        <v>9.755254953420791e-05</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>0.0001044329109398926</v>
+        <v>0.0001047000007299336</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>0.0001099836154904119</v>
+        <v>0.000110146811577073</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>0.0001131775608045007</v>
+        <v>0.0001132774034288306</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>0.0001134687437200457</v>
+        <v>0.0001135772039063297</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>0.0001113315606664577</v>
+        <v>0.000111512277683314</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>0.0001078142113482971</v>
+        <v>0.0001081001329632983</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>0.0001039712899743986</v>
+        <v>0.0001043644232754875</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>0.0001008573907535858</v>
+        <v>0.0001013288021490764</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>9.942874343177477e-05</v>
+        <v>9.992114378978391e-05</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>9.953507582841095e-05</v>
+        <v>9.999190071251989e-05</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>0.0001003294218464307</v>
+        <v>0.0001007131414912856</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>0.0001009539517674645</v>
+        <v>0.0001012463565881466</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>0.0001005508358731454</v>
+        <v>0.0001007530364651702</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>9.827486755286242e-05</v>
+        <v>9.840707810849052e-05</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>9.385977316940933e-05</v>
+        <v>9.395137831047685e-05</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>8.784675990767347e-05</v>
+        <v>8.792246015948832e-05</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>8.083695991831423e-05</v>
+        <v>8.091574353415096e-05</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>7.343150535199455e-05</v>
+        <v>7.35266483130942e-05</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>6.623152835935695e-05</v>
+        <v>6.63505943749271e-05</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>5.983816109106954e-05</v>
+        <v>5.998300159828428e-05</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>5.484313268984083e-05</v>
+        <v>5.50099678273092e-05</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>5.150988356505951e-05</v>
+        <v>5.169212921259076e-05</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>4.969577627543208e-05</v>
+        <v>4.988754097036305e-05</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>4.923299167377586e-05</v>
+        <v>4.942929346179987e-05</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>4.995371061291358e-05</v>
+        <v>5.015047704808033e-05</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>5.169011394566378e-05</v>
+        <v>5.188418209037936e-05</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>5.427438252485014e-05</v>
+        <v>5.446349894987706e-05</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>5.753869720329201e-05</v>
+        <v>5.77215179877492e-05</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>6.131523883380629e-05</v>
+        <v>6.149132956516904e-05</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>6.543618826922035e-05</v>
+        <v>6.56060240433204e-05</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>6.973372636234758e-05</v>
+        <v>6.989869178337306e-05</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>7.404003396601628e-05</v>
+        <v>7.420242314651173e-05</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>7.818729193304313e-05</v>
+        <v>7.835030849390949e-05</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>8.200947859269937e-05</v>
+        <v>8.217719573456785e-05</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>8.538933062604673e-05</v>
+        <v>8.556560802524143e-05</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>8.826285807145844e-05</v>
+        <v>8.84501584809222e-05</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>9.056877366552572e-05</v>
+        <v>9.076810287785704e-05</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>9.224579014484901e-05</v>
+        <v>9.245669699230206e-05</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>9.323262024602227e-05</v>
+        <v>9.345319660050687e-05</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>9.346797670564188e-05</v>
+        <v>9.369485747872347e-05</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>9.289057226030455e-05</v>
+        <v>9.311893540320434e-05</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>9.143921515311972e-05</v>
+        <v>9.166278249468717e-05</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>8.912864700078008e-05</v>
+        <v>8.93403504857405e-05</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>8.618597747957339e-05</v>
+        <v>8.637982248260395e-05</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>8.287515838524991e-05</v>
+        <v>8.304654696316691e-05</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>7.946014151356114e-05</v>
+        <v>7.960587240532021e-05</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>7.620487866024918e-05</v>
+        <v>7.632314728694504e-05</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>7.337332162106786e-05</v>
+        <v>7.346372008593451e-05</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>7.122942219176037e-05</v>
+        <v>7.129293928017093e-05</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>7.003713216807795e-05</v>
+        <v>7.007615334754476e-05</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>7.006040334576845e-05</v>
+        <v>7.007871076594305e-05</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>7.156318752058015e-05</v>
+        <v>7.156596001325328e-05</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>7.480943648826211e-05</v>
+        <v>7.480324956736368e-05</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>8.00631020445571e-05</v>
+        <v>8.005592790615625e-05</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>8.758813598522285e-05</v>
+        <v>8.75893435075279e-05</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>9.759892962884836e-05</v>
+        <v>9.761905541420839e-05</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>0.0001096897198914402</v>
+        <v>0.0001097376032957298</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>0.0001230327017366054</v>
+        <v>0.000123113535132535</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>0.0001367919811683585</v>
+        <v>0.0001369072725763423</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>0.0001501316641907616</v>
+        <v>0.0001502792372789182</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>0.0001622158568078392</v>
+        <v>0.0001623898508919914</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>0.0001721979499771662</v>
+        <v>0.0001723892864840913</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>0.0001791333823383334</v>
+        <v>0.000179334029010949</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>0.0001820250971806614</v>
+        <v>0.0001822303533832561</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>0.0001903607327930729</v>
+        <v>0.0001905833117423688</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>0.0002278874559716656</v>
+        <v>0.0002281729159113586</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>0.0002774561690765807</v>
+        <v>0.0002778221210002703</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>0.0003173352979421498</v>
+        <v>0.0003177647622831593</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>0.0003279557374117684</v>
+        <v>0.000328400663141163</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>0.0003125440037108397</v>
+        <v>0.0003129623648348474</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>0.0002879922894905507</v>
+        <v>0.00028837032391485</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>0.000271234018953568</v>
+        <v>0.0002715862832845462</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>0.000268393403621892</v>
+        <v>0.0002687442597846732</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>0.0002678890354365012</v>
+        <v>0.0002682423247254084</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>0.000263838027557177</v>
+        <v>0.0002641868167877201</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>0.000256626358660405</v>
+        <v>0.0002569636653552414</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>0.00024683634012113</v>
+        <v>0.0002471554684089126</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>0.0002350502833143153</v>
+        <v>0.0002353448239296919</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>0.0002218504996149316</v>
+        <v>0.0002221143298985456</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>0.0002078193003979132</v>
+        <v>0.0002080465842964027</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>0.0001935199219625726</v>
+        <v>0.0001937052191181556</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>0.0001792420119952423</v>
+        <v>0.0001793818423879022</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>0.0001650705006883023</v>
+        <v>0.0001651645154068364</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>0.0001510853815284856</v>
+        <v>0.0001511363910033245</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>0.0001373666480025245</v>
+        <v>0.0001373806220057324</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>0.0001239942935971141</v>
+        <v>0.0001239803612423888</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>0.0001110483117989986</v>
+        <v>0.000111018761541671</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>9.860869609487444e-05</v>
+        <v>9.857897573190927e-05</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>8.675568912873435e-05</v>
+        <v>8.674439141447147e-05</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>7.56401813260076e-05</v>
+        <v>7.566496535962562e-05</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>6.558049888034606e-05</v>
+        <v>6.564842376376988e-05</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>5.691922612336131e-05</v>
+        <v>5.702535049908952e-05</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>4.999894738665994e-05</v>
+        <v>5.012632943776495e-05</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>4.513875670758915e-05</v>
+        <v>4.525919611038038e-05</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>4.22629207102077e-05</v>
+        <v>4.234942945506544e-05</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>4.096795233427539e-05</v>
+        <v>4.100510698928975e-05</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>4.084043491501181e-05</v>
+        <v>4.082469025749591e-05</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>4.146695178763965e-05</v>
+        <v>4.140664080412981e-05</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>4.2434086287382e-05</v>
+        <v>4.234942017363757e-05</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>4.332842174946018e-05</v>
+        <v>4.325148991046369e-05</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>4.377434767767029e-05</v>
+        <v>4.374701358008797e-05</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>4.37814147374445e-05</v>
+        <v>4.383387930440952e-05</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>4.358408263730978e-05</v>
+        <v>4.372236666657114e-05</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>4.34196295199476e-05</v>
+        <v>4.36254168205456e-05</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>4.352533352803884e-05</v>
+        <v>4.375597092030527e-05</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>4.413722599950191e-05</v>
+        <v>4.432587851225588e-05</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>4.529984820325332e-05</v>
+        <v>4.537933498030918e-05</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>4.666169618633661e-05</v>
+        <v>4.66137885881275e-05</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>4.784011757780107e-05</v>
+        <v>4.769910117177841e-05</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>4.870106319917439e-05</v>
+        <v>4.85184182956989e-05</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>4.929236675343112e-05</v>
+        <v>4.911092800589962e-05</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>4.966602368938302e-05</v>
+        <v>4.951938882815794e-05</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>4.987402945584169e-05</v>
+        <v>4.978655928825111e-05</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>4.996837950161926e-05</v>
+        <v>4.995519791195697e-05</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>5.000106927552717e-05</v>
+        <v>5.006806322505253e-05</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>5.00238150112016e-05</v>
+        <v>5.016768608822435e-05</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>5.006945275660784e-05</v>
+        <v>5.028120292960346e-05</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>5.014026075949915e-05</v>
+        <v>5.041083410908919e-05</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>5.023573141987396e-05</v>
+        <v>5.055652847579626e-05</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>5.035535713773062e-05</v>
+        <v>5.071823487883915e-05</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>5.049863031306729e-05</v>
+        <v>5.089590216733216e-05</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>5.066504334588261e-05</v>
+        <v>5.108947919039015e-05</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>5.085408863617477e-05</v>
+        <v>5.129891479712747e-05</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>5.106525858394196e-05</v>
+        <v>5.152415783665845e-05</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>5.129804558918289e-05</v>
+        <v>5.176515715809801e-05</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>5.15519420518955e-05</v>
+        <v>5.202186161056023e-05</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>5.182644037207857e-05</v>
+        <v>5.229422004316009e-05</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>5.212103294973026e-05</v>
+        <v>5.258218130501189e-05</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>5.24352121848486e-05</v>
+        <v>5.288569424522987e-05</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>5.276847047743253e-05</v>
+        <v>5.320470771292909e-05</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>5.312030022748009e-05</v>
+        <v>5.353917055722382e-05</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>5.349019383498932e-05</v>
+        <v>5.388903162722823e-05</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>5.387764369995922e-05</v>
+        <v>5.425423977205749e-05</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>5.42821422223878e-05</v>
+        <v>5.46347438408258e-05</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>5.470318180227305e-05</v>
+        <v>5.503049268264732e-05</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>5.514025483961406e-05</v>
+        <v>5.544143514663729e-05</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>5.559285373440838e-05</v>
+        <v>5.586752008190948e-05</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>5.606047088665519e-05</v>
+        <v>5.630869633757919e-05</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>5.654259869635244e-05</v>
+        <v>5.676491276276055e-05</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>5.703872956349846e-05</v>
+        <v>5.723611820656807e-05</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>5.754835588809115e-05</v>
+        <v>5.772226151811585e-05</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>5.807097007012978e-05</v>
+        <v>5.822329154651928e-05</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>5.860651744484218e-05</v>
+        <v>5.873954564445759e-05</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>5.915746578246213e-05</v>
+        <v>5.927352477416846e-05</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>5.972715579340977e-05</v>
+        <v>5.982847865919608e-05</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>6.031892903164263e-05</v>
+        <v>6.040765774662581e-05</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>6.093612705111987e-05</v>
+        <v>6.101431248354459e-05</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>6.158209140579902e-05</v>
+        <v>6.165169331703774e-05</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>6.226016364963761e-05</v>
+        <v>6.232305069419059e-05</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>6.29736853365949e-05</v>
+        <v>6.303163506209021e-05</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>6.372599802062838e-05</v>
+        <v>6.378069686782187e-05</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>6.452044325569541e-05</v>
+        <v>6.457348655847077e-05</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>6.536036259575552e-05</v>
+        <v>6.541325458112417e-05</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>6.624909759476522e-05</v>
+        <v>6.630325138286646e-05</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>6.71899898066843e-05</v>
+        <v>6.724672741078516e-05</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>6.818638078546994e-05</v>
+        <v>6.824693311196531e-05</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>6.924161208507934e-05</v>
+        <v>6.930711893349186e-05</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>7.035902525947247e-05</v>
+        <v>7.04305353224526e-05</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>7.154196186260648e-05</v>
+        <v>7.162043272593246e-05</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>7.279376344843829e-05</v>
+        <v>7.288006159101619e-05</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>7.411777157092825e-05</v>
+        <v>7.421267236479191e-05</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>7.551732778403334e-05</v>
+        <v>7.562151549434444e-05</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>7.699577364171031e-05</v>
+        <v>7.710984142675825e-05</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>7.85564506979199e-05</v>
+        <v>7.868090060912195e-05</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>8.020270050661734e-05</v>
+        <v>8.033794348851855e-05</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>8.19378646217637e-05</v>
+        <v>8.208422051203692e-05</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>8.376528459731561e-05</v>
+        <v>8.392298212676151e-05</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>8.568830198722944e-05</v>
+        <v>8.585747877977642e-05</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>8.771025834546664e-05</v>
+        <v>8.789096091817098e-05</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>8.983449522598371e-05</v>
+        <v>9.002667898902944e-05</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>9.206435418273662e-05</v>
+        <v>9.226788343943558e-05</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>9.440317676968747e-05</v>
+        <v>9.46178247164793e-05</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>9.685430454079242e-05</v>
+        <v>9.707975326724456e-05</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>9.942107905000716e-05</v>
+        <v>9.965691953881485e-05</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>0.0001021068418512944</v>
+        <v>0.0001023525739782807</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>0.0001049149344986074</v>
+        <v>0.0001051699670327231</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>0.0001078486985459093</v>
+        <v>0.0001081123491492331</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>0.000110919004336698</v>
+        <v>0.0001111905024257709</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>0.0001141722961637294</v>
+        <v>0.0001144507964295207</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>0.0001176655151686262</v>
+        <v>0.0001179501015658859</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>0.0001214556040144575</v>
+        <v>0.0001217452897622949</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>0.0001255995053642791</v>
+        <v>0.0001258932329461625</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>0.0001301541618811614</v>
+        <v>0.0001304508030449182</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>0.0001351765162281637</v>
+        <v>0.0001354748719859803</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>0.0001407235110683434</v>
+        <v>0.0001410223116967656</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>0.0001468520890647734</v>
+        <v>0.000147149994104706</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>0.0001536191928805119</v>
+        <v>0.0001539147911372187</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>0.0001610817651786146</v>
+        <v>0.0001613735747217186</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>0.0001692908980367255</v>
+        <v>0.0001695773675433847</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>0.0001781931778943323</v>
+        <v>0.000178472710641614</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>0.0001876450750930301</v>
+        <v>0.0001879160496467395</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>0.000197500107110474</v>
+        <v>0.0001977608780030719</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>0.0002076117914242848</v>
+        <v>0.0002078606891548874</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>0.000217833645512119</v>
+        <v>0.0002180689765464979</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>0.0002280191868516058</v>
+        <v>0.000228239233622188</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>0.0002380219329203744</v>
+        <v>0.0002382249538262426</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>0.0002476954011960812</v>
+        <v>0.0002478796306029732</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>0.0002568931091563551</v>
+        <v>0.0002570567573966646</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>0.0002654685742788272</v>
+        <v>0.0002656098276516028</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>0.0002732753140411509</v>
+        <v>0.0002733923348120972</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>0.0002801668459209564</v>
+        <v>0.0002802577723224331</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>0.0002859966873958774</v>
+        <v>0.0002860596336268998</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>0.0002906183559435624</v>
+        <v>0.0002906514121698012</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>0.0002939650591916162</v>
+        <v>0.0002939665376130877</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>0.000296337665455695</v>
+        <v>0.000296307235571486</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>0.000298143002382622</v>
+        <v>0.000298082018172704</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>0.000299787907509676</v>
+        <v>0.0002996994074654458</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>0.0003016792183741404</v>
+        <v>0.0003015679254984192</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>0.0003042237725132944</v>
+        <v>0.0003040960943203281</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>0.0003078284074644148</v>
+        <v>0.0003076924359798743</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>0.0003128999607647883</v>
+        <v>0.0003127654725257692</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>0.0003198449607779984</v>
+        <v>0.0003197234152309868</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>0.0003289741616219829</v>
+        <v>0.0003288782048528666</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>0.0003403674374926179</v>
+        <v>0.0003403097058844388</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>0.0003540705716489806</v>
+        <v>0.0003540635152341452</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>0.0003701293473501401</v>
+        <v>0.0003701852298104191</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>0.00038858954785521</v>
+        <v>0.0003887204465217384</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>0.0004094969564232614</v>
+        <v>0.0004097147622765385</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>0.0004328973563133568</v>
+        <v>0.0004332137739832462</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>0.0004588365307846226</v>
+        <v>0.0004592630785503527</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>0.0004873299795660047</v>
+        <v>0.0004878776203639788</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>0.0005180236664460337</v>
+        <v>0.0005186983052284576</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>0.0005503165683815584</v>
+        <v>0.0005511160426848671</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>0.0005836031428219903</v>
+        <v>0.0005845171676985337</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>0.0006172778472168305</v>
+        <v>0.0006182880152348743</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>0.0006507351390154909</v>
+        <v>0.0006518149202592161</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>0.0006833694756673841</v>
+        <v>0.0006844842177368867</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>0.0007145753146220107</v>
+        <v>0.0007156822426333024</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>0.0007437471133287822</v>
+        <v>0.0007447953299137898</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>0.0007702844526541061</v>
+        <v>0.0007712162947823524</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>0.0007936598514098852</v>
+        <v>0.0007944302063617753</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>0.0008134001307050289</v>
+        <v>0.0008139908168130947</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>0.0008290334059321415</v>
+        <v>0.0008294535153429292</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>0.0008400877924837726</v>
+        <v>0.0008403736911578421</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>0.0008460914057524869</v>
+        <v>0.0008463067334644118</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>0.0008465724577138089</v>
+        <v>0.0008468081179264392</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>0.0008412158665665834</v>
+        <v>0.0008415735973805961</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>0.0008301819242695085</v>
+        <v>0.0008307244603294475</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>0.0008137207255844669</v>
+        <v>0.0008144623831700496</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>0.0007920823653059571</v>
+        <v>0.0007929890423358849</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>0.0007656053247771407</v>
+        <v>0.0007666048387339504</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>0.0007349740540337767</v>
+        <v>0.0007359966073785458</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>0.0007009576413387929</v>
+        <v>0.0007019457210223706</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>0.000664325174955002</v>
+        <v>0.0006652335524180078</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>0.0006258457431453067</v>
+        <v>0.0006266414743181319</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>0.0005862884341725818</v>
+        <v>0.0005869508594753884</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>0.0005464223362997365</v>
+        <v>0.0005469430806424578</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>0.0005070165377895733</v>
+        <v>0.0005073995105719132</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>0.0004688401269050354</v>
+        <v>0.0004691015220164695</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>0.0004325730998932113</v>
+        <v>0.0004327396103366574</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>0.000398382451686466</v>
+        <v>0.0003984809891912432</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>0.0003662519359367323</v>
+        <v>0.0003663059588602054</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>0.0003361650776036556</v>
+        <v>0.0003361945863483138</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>0.0003081054016469693</v>
+        <v>0.0003081269386604262</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>0.0002820564330263991</v>
+        <v>0.000282083082801393</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>0.0002580016967016014</v>
+        <v>0.0002580430857759953</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>0.0002359247176323038</v>
+        <v>0.0002359870145890853</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>0.0002158088574485908</v>
+        <v>0.0002158947843171197</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>0.0001976216415024251</v>
+        <v>0.0001977315792120215</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>0.0001813017524616953</v>
+        <v>0.0001814357542092066</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>0.0001667848114873853</v>
+        <v>0.0001669428164460967</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>0.000154006439740524</v>
+        <v>0.0001541882730601577</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>0.0001429022583821339</v>
+        <v>0.0001431076311888498</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>0.0001334078885732083</v>
+        <v>0.0001336363979696037</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>0.0001254589514747713</v>
+        <v>0.0001257100805398809</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>0.0001189910682478413</v>
+        <v>0.0001192641860371373</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>0.0001139355892215693</v>
+        <v>0.000114229904823324</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>0.0001101226004882834</v>
+        <v>0.0001104360736696576</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>0.0001072792084710297</v>
+        <v>0.0001076074418703314</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>0.0001051279056441596</v>
+        <v>0.0001054640951361142</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>0.0001033911844820339</v>
+        <v>0.0001037261191777841</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>0.0001017915374590061</v>
+        <v>0.0001021135997061117</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>0.0001000514570494343</v>
+        <v>0.0001003466224318722</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>9.789343572767706e-05</v>
+        <v>9.814527306584166e-05</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>9.503996596808714e-05</v>
+        <v>9.52296373187899e-05</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>9.13863522476506e-05</v>
+        <v>9.149742307728179e-05</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>8.757431040944527e-05</v>
+        <v>8.761352574300319e-05</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>8.444703301042367e-05</v>
+        <v>8.444992547879744e-05</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>8.283218665153336e-05</v>
+        <v>8.286229107333517e-05</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>8.255508035966487e-05</v>
+        <v>8.265323164362282e-05</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>8.210124313672074e-05</v>
+        <v>8.221916455375958e-05</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>8.145122462025212e-05</v>
+        <v>8.153584015006842e-05</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>8.123064354616631e-05</v>
+        <v>8.126013097248707e-05</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>8.206667843071975e-05</v>
+        <v>8.205055651786927e-05</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>8.455529232802826e-05</v>
+        <v>8.453332131123367e-05</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>8.857125539982954e-05</v>
+        <v>8.858803423534783e-05</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>9.326634183811048e-05</v>
+        <v>9.334584194312956e-05</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>9.776074975652115e-05</v>
+        <v>9.790520279739485e-05</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>0.000101174677268727</v>
+        <v>0.0001013645751609753</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>0.0001026287952881291</v>
+        <v>0.000102822901310106</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>0.0001017351706391282</v>
+        <v>0.0001018820702231253</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>9.952652109387041e-05</v>
+        <v>9.959801575952242e-05</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>9.729079631938356e-05</v>
+        <v>9.728790317475252e-05</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>9.62581190586143e-05</v>
+        <v>9.620988696839765e-05</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>9.657366159456834e-05</v>
+        <v>9.651496009300709e-05</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>9.741851137981426e-05</v>
+        <v>9.737029394268245e-05</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>9.794020782812495e-05</v>
+        <v>9.790882507785837e-05</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>9.745478527255272e-05</v>
+        <v>9.743511197315069e-05</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>9.59915478815329e-05</v>
+        <v>9.598022008035665e-05</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>9.376850574068748e-05</v>
+        <v>9.376742284700062e-05</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>9.100367013684495e-05</v>
+        <v>9.101999494410589e-05</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>8.791505235683585e-05</v>
+        <v>8.79612110426977e-05</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>8.472065519053306e-05</v>
+        <v>8.481433615375429e-05</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>8.160801526568514e-05</v>
+        <v>8.17679988207611e-05</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>7.866574950877683e-05</v>
+        <v>7.889836744197332e-05</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>7.59624334670455e-05</v>
+        <v>7.625882570853681e-05</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>7.356664268773664e-05</v>
+        <v>7.390275731160536e-05</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>7.154695271809465e-05</v>
+        <v>7.188354594233167e-05</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>6.997193910535857e-05</v>
+        <v>7.025457529186316e-05</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>6.891017442308703e-05</v>
+        <v>6.906922701148322e-05</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>6.829157645116221e-05</v>
+        <v>6.828575592465066e-05</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>6.772486586321342e-05</v>
+        <v>6.763700403590463e-05</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>6.717665416460352e-05</v>
+        <v>6.708859777194866e-05</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>6.668671021271171e-05</v>
+        <v>6.665438921424321e-05</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>6.629480286491599e-05</v>
+        <v>6.634823044424761e-05</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>6.604070097859582e-05</v>
+        <v>6.618397354342254e-05</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>6.595514472012491e-05</v>
+        <v>6.617038717865261e-05</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>6.602606737711205e-05</v>
+        <v>6.629213850406498e-05</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>6.622872861735024e-05</v>
+        <v>6.652675905870601e-05</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>6.653838616310881e-05</v>
+        <v>6.685177928623613e-05</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>6.693029773665656e-05</v>
+        <v>6.72447296303152e-05</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>6.737972106026206e-05</v>
+        <v>6.768314053460283e-05</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>6.786191385619502e-05</v>
+        <v>6.814454244275986e-05</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>6.835213384672405e-05</v>
+        <v>6.860646579844593e-05</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>6.882563875411767e-05</v>
+        <v>6.90464410453207e-05</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>6.925768630064569e-05</v>
+        <v>6.944199862704496e-05</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>6.962353420857634e-05</v>
+        <v>6.977066898727812e-05</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>6.989849160059372e-05</v>
+        <v>7.001003045074086e-05</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>7.006774478104537e-05</v>
+        <v>7.014686223933461e-05</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>7.013803646500009e-05</v>
+        <v>7.018802403165274e-05</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>7.011895298909699e-05</v>
+        <v>7.014302442685931e-05</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>7.002008068997502e-05</v>
+        <v>7.002137202411822e-05</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>6.98510059042734e-05</v>
+        <v>6.983257542259368e-05</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>6.96213149686308e-05</v>
+        <v>6.958614322144932e-05</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>6.934059421968637e-05</v>
+        <v>6.929158401984928e-05</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>6.901842999407943e-05</v>
+        <v>6.895840641695785e-05</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>6.866440862844843e-05</v>
+        <v>6.859611901193848e-05</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>6.828811645943302e-05</v>
+        <v>6.821423040395574e-05</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>6.789913982367152e-05</v>
+        <v>6.782224919217297e-05</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>6.75070650578033e-05</v>
+        <v>6.742968397575446e-05</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>6.712147849846769e-05</v>
+        <v>6.704604335386457e-05</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>6.675196648230304e-05</v>
+        <v>6.668083592566658e-05</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>6.640811534594871e-05</v>
+        <v>6.634357029032485e-05</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>6.609951142604398e-05</v>
+        <v>6.60437550470036e-05</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>6.583574105922732e-05</v>
+        <v>6.579089879486634e-05</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>6.562639058213803e-05</v>
+        <v>6.559451013307727e-05</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>6.548077841512099e-05</v>
+        <v>6.546372863237409e-05</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>6.540698723636205e-05</v>
+        <v>6.5405991749834e-05</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>6.541274367708698e-05</v>
+        <v>6.542824652275643e-05</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>6.550577433546144e-05</v>
+        <v>6.553743994290389e-05</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>6.569380580965103e-05</v>
+        <v>6.574051900203883e-05</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>6.598456469782141e-05</v>
+        <v>6.604443069192371e-05</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>6.638577759813776e-05</v>
+        <v>6.645612200432053e-05</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>6.690517110876644e-05</v>
+        <v>6.69825399309925e-05</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>6.755047182787209e-05</v>
+        <v>6.763063146370106e-05</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>6.832940635362152e-05</v>
+        <v>6.840734359420984e-05</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>6.924970128417982e-05</v>
+        <v>6.931962331428077e-05</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>7.031908321771155e-05</v>
+        <v>7.037441761567524e-05</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>7.154527875238429e-05</v>
+        <v>7.157867349015762e-05</v>
       </c>
     </row>
   </sheetData>
